--- a/doc/SMC-2023/推荐评估.xlsx
+++ b/doc/SMC-2023/推荐评估.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://qmulprod-my.sharepoint.com/personal/jp2020213350_qmul_ac_uk/Documents/Documentation/Projects/Academic-Collaboration-RS/doc/SMC-2023/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="191" documentId="8_{89F029C1-53F2-4E73-AA47-218570D5ECC6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{105076F7-1F30-49D6-AFE1-9C4CC8161B68}"/>
+  <xr:revisionPtr revIDLastSave="224" documentId="8_{89F029C1-53F2-4E73-AA47-218570D5ECC6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{F029F7B6-88D7-4D6F-8872-F30938AC0ADA}"/>
   <bookViews>
-    <workbookView xWindow="5070" yWindow="5070" windowWidth="28800" windowHeight="15345" firstSheet="1" activeTab="12" xr2:uid="{4C010B97-5EDD-43BF-9DE3-FB24C925D0E6}"/>
+    <workbookView xWindow="6810" yWindow="3620" windowWidth="26280" windowHeight="13680" firstSheet="2" activeTab="12" xr2:uid="{4C010B97-5EDD-43BF-9DE3-FB24C925D0E6}"/>
   </bookViews>
   <sheets>
     <sheet name="匹配度优先" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
     <sheet name="匹配度9" sheetId="11" r:id="rId10"/>
     <sheet name="匹配度10" sheetId="12" r:id="rId11"/>
     <sheet name="影响力优先" sheetId="2" r:id="rId12"/>
-    <sheet name="Sheet1" sheetId="14" r:id="rId13"/>
+    <sheet name="汇总" sheetId="14" r:id="rId13"/>
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">匹配度优先!$A$2:$K$2</definedName>
@@ -51,7 +51,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="200" uniqueCount="18">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="229" uniqueCount="23">
   <si>
     <t>测试信息</t>
     <phoneticPr fontId="2" type="noConversion"/>
@@ -124,12 +124,29 @@
     <t>朱大旋</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
+  <si>
+    <t>top1</t>
+  </si>
+  <si>
+    <t>top3</t>
+  </si>
+  <si>
+    <t>top5</t>
+  </si>
+  <si>
+    <t>top</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>score</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="7" x14ac:knownFonts="1">
+  <fonts count="8" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -181,6 +198,15 @@
       <family val="3"/>
       <charset val="134"/>
     </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <family val="2"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -207,7 +233,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -238,6 +264,9 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="9" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="百分比" xfId="1" builtinId="5"/>
@@ -254,10 +283,6 @@
     </ext>
   </extLst>
 </styleSheet>
-</file>
-
-<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
-<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -563,14 +588,14 @@
       <selection activeCell="I4" sqref="I4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="11.125" customWidth="1"/>
-    <col min="2" max="2" width="17.125" customWidth="1"/>
+    <col min="1" max="1" width="11.08203125" customWidth="1"/>
+    <col min="2" max="2" width="17.08203125" customWidth="1"/>
     <col min="3" max="3" width="16" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A1" s="8" t="s">
         <v>0</v>
       </c>
@@ -587,7 +612,7 @@
       <c r="J1" s="8"/>
       <c r="K1" s="8"/>
     </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A2" s="3" t="s">
         <v>2</v>
       </c>
@@ -622,7 +647,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A3" s="3" t="s">
         <v>13</v>
       </c>
@@ -656,7 +681,7 @@
         <v>61.8</v>
       </c>
     </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A4" s="3" t="s">
         <v>14</v>
       </c>
@@ -681,7 +706,7 @@
       <c r="J4" s="3"/>
       <c r="K4" s="3"/>
     </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A5" s="3" t="s">
         <v>15</v>
       </c>
@@ -706,7 +731,7 @@
       <c r="J5" s="3"/>
       <c r="K5" s="3"/>
     </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A6" s="3" t="s">
         <v>16</v>
       </c>
@@ -731,7 +756,7 @@
       <c r="J6" s="3"/>
       <c r="K6" s="3"/>
     </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A7" s="3"/>
       <c r="B7" s="3"/>
       <c r="C7" s="3"/>
@@ -754,7 +779,7 @@
       <c r="J7" s="3"/>
       <c r="K7" s="3"/>
     </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:11" x14ac:dyDescent="0.3">
       <c r="D8" s="2">
         <v>93</v>
       </c>
@@ -771,7 +796,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:11" x14ac:dyDescent="0.3">
       <c r="D9" s="2">
         <v>87</v>
       </c>
@@ -788,7 +813,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:11" x14ac:dyDescent="0.3">
       <c r="D10" s="2">
         <v>68</v>
       </c>
@@ -805,7 +830,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:11" x14ac:dyDescent="0.3">
       <c r="D11" s="2">
         <v>73</v>
       </c>
@@ -822,7 +847,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:11" x14ac:dyDescent="0.3">
       <c r="D12" s="2">
         <v>76</v>
       </c>
@@ -839,7 +864,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:11" x14ac:dyDescent="0.3">
       <c r="D13" s="4">
         <v>93</v>
       </c>
@@ -856,7 +881,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:11" x14ac:dyDescent="0.3">
       <c r="D14" s="4">
         <v>81</v>
       </c>
@@ -873,7 +898,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:11" x14ac:dyDescent="0.3">
       <c r="D15" s="4">
         <v>87</v>
       </c>
@@ -890,7 +915,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:11" x14ac:dyDescent="0.3">
       <c r="D16" s="4">
         <v>99</v>
       </c>
@@ -907,7 +932,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="17" spans="4:8" x14ac:dyDescent="0.2">
+    <row r="17" spans="4:8" x14ac:dyDescent="0.3">
       <c r="D17" s="4">
         <v>81</v>
       </c>
@@ -924,7 +949,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="18" spans="4:8" x14ac:dyDescent="0.2">
+    <row r="18" spans="4:8" x14ac:dyDescent="0.3">
       <c r="D18" s="2">
         <v>98</v>
       </c>
@@ -941,7 +966,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="19" spans="4:8" x14ac:dyDescent="0.2">
+    <row r="19" spans="4:8" x14ac:dyDescent="0.3">
       <c r="D19" s="2">
         <v>98</v>
       </c>
@@ -958,7 +983,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="20" spans="4:8" x14ac:dyDescent="0.2">
+    <row r="20" spans="4:8" x14ac:dyDescent="0.3">
       <c r="D20" s="2">
         <v>87</v>
       </c>
@@ -975,7 +1000,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="21" spans="4:8" x14ac:dyDescent="0.2">
+    <row r="21" spans="4:8" x14ac:dyDescent="0.3">
       <c r="D21" s="2">
         <v>95</v>
       </c>
@@ -992,7 +1017,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="22" spans="4:8" x14ac:dyDescent="0.2">
+    <row r="22" spans="4:8" x14ac:dyDescent="0.3">
       <c r="D22" s="2">
         <v>60</v>
       </c>
@@ -1009,7 +1034,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="23" spans="4:8" x14ac:dyDescent="0.2">
+    <row r="23" spans="4:8" x14ac:dyDescent="0.3">
       <c r="D23" s="4">
         <v>75</v>
       </c>
@@ -1026,7 +1051,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="24" spans="4:8" x14ac:dyDescent="0.2">
+    <row r="24" spans="4:8" x14ac:dyDescent="0.3">
       <c r="D24" s="4">
         <v>97</v>
       </c>
@@ -1043,7 +1068,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="25" spans="4:8" x14ac:dyDescent="0.2">
+    <row r="25" spans="4:8" x14ac:dyDescent="0.3">
       <c r="D25" s="4">
         <v>82</v>
       </c>
@@ -1060,7 +1085,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="26" spans="4:8" x14ac:dyDescent="0.2">
+    <row r="26" spans="4:8" x14ac:dyDescent="0.3">
       <c r="D26" s="4">
         <v>97</v>
       </c>
@@ -1077,7 +1102,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="27" spans="4:8" x14ac:dyDescent="0.2">
+    <row r="27" spans="4:8" x14ac:dyDescent="0.3">
       <c r="D27" s="4">
         <v>79</v>
       </c>
@@ -1094,7 +1119,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="28" spans="4:8" x14ac:dyDescent="0.2">
+    <row r="28" spans="4:8" x14ac:dyDescent="0.3">
       <c r="D28" s="2">
         <v>78</v>
       </c>
@@ -1111,7 +1136,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="29" spans="4:8" x14ac:dyDescent="0.2">
+    <row r="29" spans="4:8" x14ac:dyDescent="0.3">
       <c r="D29" s="2">
         <v>73</v>
       </c>
@@ -1128,7 +1153,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="30" spans="4:8" x14ac:dyDescent="0.2">
+    <row r="30" spans="4:8" x14ac:dyDescent="0.3">
       <c r="D30" s="2">
         <v>91</v>
       </c>
@@ -1145,7 +1170,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="31" spans="4:8" x14ac:dyDescent="0.2">
+    <row r="31" spans="4:8" x14ac:dyDescent="0.3">
       <c r="D31" s="2">
         <v>99</v>
       </c>
@@ -1162,7 +1187,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="32" spans="4:8" x14ac:dyDescent="0.2">
+    <row r="32" spans="4:8" x14ac:dyDescent="0.3">
       <c r="D32" s="2">
         <v>89</v>
       </c>
@@ -1179,7 +1204,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="33" spans="4:8" x14ac:dyDescent="0.2">
+    <row r="33" spans="4:8" x14ac:dyDescent="0.3">
       <c r="D33" s="4">
         <v>84</v>
       </c>
@@ -1196,7 +1221,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="34" spans="4:8" x14ac:dyDescent="0.2">
+    <row r="34" spans="4:8" x14ac:dyDescent="0.3">
       <c r="D34" s="4">
         <v>98</v>
       </c>
@@ -1213,7 +1238,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="35" spans="4:8" x14ac:dyDescent="0.2">
+    <row r="35" spans="4:8" x14ac:dyDescent="0.3">
       <c r="D35" s="4">
         <v>82</v>
       </c>
@@ -1230,7 +1255,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="36" spans="4:8" x14ac:dyDescent="0.2">
+    <row r="36" spans="4:8" x14ac:dyDescent="0.3">
       <c r="D36" s="4">
         <v>98</v>
       </c>
@@ -1247,7 +1272,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="37" spans="4:8" x14ac:dyDescent="0.2">
+    <row r="37" spans="4:8" x14ac:dyDescent="0.3">
       <c r="D37" s="4">
         <v>67</v>
       </c>
@@ -1264,7 +1289,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="38" spans="4:8" x14ac:dyDescent="0.2">
+    <row r="38" spans="4:8" x14ac:dyDescent="0.3">
       <c r="D38" s="2">
         <v>93</v>
       </c>
@@ -1281,7 +1306,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="39" spans="4:8" x14ac:dyDescent="0.2">
+    <row r="39" spans="4:8" x14ac:dyDescent="0.3">
       <c r="D39" s="2">
         <v>68</v>
       </c>
@@ -1298,7 +1323,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="40" spans="4:8" x14ac:dyDescent="0.2">
+    <row r="40" spans="4:8" x14ac:dyDescent="0.3">
       <c r="D40" s="2">
         <v>71</v>
       </c>
@@ -1315,7 +1340,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="41" spans="4:8" x14ac:dyDescent="0.2">
+    <row r="41" spans="4:8" x14ac:dyDescent="0.3">
       <c r="D41" s="2">
         <v>94</v>
       </c>
@@ -1332,7 +1357,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="42" spans="4:8" x14ac:dyDescent="0.2">
+    <row r="42" spans="4:8" x14ac:dyDescent="0.3">
       <c r="D42" s="2">
         <v>69</v>
       </c>
@@ -1349,7 +1374,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="43" spans="4:8" x14ac:dyDescent="0.2">
+    <row r="43" spans="4:8" x14ac:dyDescent="0.3">
       <c r="D43" s="4">
         <v>71</v>
       </c>
@@ -1366,7 +1391,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="44" spans="4:8" x14ac:dyDescent="0.2">
+    <row r="44" spans="4:8" x14ac:dyDescent="0.3">
       <c r="D44" s="4">
         <v>87</v>
       </c>
@@ -1383,7 +1408,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="45" spans="4:8" x14ac:dyDescent="0.2">
+    <row r="45" spans="4:8" x14ac:dyDescent="0.3">
       <c r="D45" s="4">
         <v>96</v>
       </c>
@@ -1400,7 +1425,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="46" spans="4:8" x14ac:dyDescent="0.2">
+    <row r="46" spans="4:8" x14ac:dyDescent="0.3">
       <c r="D46" s="4">
         <v>92</v>
       </c>
@@ -1417,7 +1442,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="47" spans="4:8" x14ac:dyDescent="0.2">
+    <row r="47" spans="4:8" x14ac:dyDescent="0.3">
       <c r="D47" s="4">
         <v>76</v>
       </c>
@@ -1434,7 +1459,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="48" spans="4:8" x14ac:dyDescent="0.2">
+    <row r="48" spans="4:8" x14ac:dyDescent="0.3">
       <c r="D48" s="2">
         <v>96</v>
       </c>
@@ -1451,7 +1476,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="49" spans="4:8" x14ac:dyDescent="0.2">
+    <row r="49" spans="4:8" x14ac:dyDescent="0.3">
       <c r="D49" s="2">
         <v>99</v>
       </c>
@@ -1468,7 +1493,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="50" spans="4:8" x14ac:dyDescent="0.2">
+    <row r="50" spans="4:8" x14ac:dyDescent="0.3">
       <c r="D50" s="2">
         <v>61</v>
       </c>
@@ -1485,7 +1510,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="51" spans="4:8" x14ac:dyDescent="0.2">
+    <row r="51" spans="4:8" x14ac:dyDescent="0.3">
       <c r="D51" s="2">
         <v>80</v>
       </c>
@@ -1502,7 +1527,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="52" spans="4:8" x14ac:dyDescent="0.2">
+    <row r="52" spans="4:8" x14ac:dyDescent="0.3">
       <c r="D52" s="2">
         <v>88</v>
       </c>
@@ -1519,7 +1544,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="53" spans="4:8" x14ac:dyDescent="0.2">
+    <row r="53" spans="4:8" x14ac:dyDescent="0.3">
       <c r="D53" s="2">
         <v>98</v>
       </c>
@@ -1536,7 +1561,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="54" spans="4:8" x14ac:dyDescent="0.2">
+    <row r="54" spans="4:8" x14ac:dyDescent="0.3">
       <c r="D54" s="2">
         <v>84</v>
       </c>
@@ -1553,7 +1578,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="55" spans="4:8" x14ac:dyDescent="0.2">
+    <row r="55" spans="4:8" x14ac:dyDescent="0.3">
       <c r="D55" s="2">
         <v>93</v>
       </c>
@@ -1570,7 +1595,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="56" spans="4:8" x14ac:dyDescent="0.2">
+    <row r="56" spans="4:8" x14ac:dyDescent="0.3">
       <c r="D56" s="2">
         <v>92</v>
       </c>
@@ -1587,7 +1612,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="57" spans="4:8" x14ac:dyDescent="0.2">
+    <row r="57" spans="4:8" x14ac:dyDescent="0.3">
       <c r="D57" s="2">
         <v>85</v>
       </c>
@@ -1604,7 +1629,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="58" spans="4:8" x14ac:dyDescent="0.2">
+    <row r="58" spans="4:8" x14ac:dyDescent="0.3">
       <c r="D58" s="2">
         <v>97</v>
       </c>
@@ -1621,7 +1646,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="59" spans="4:8" x14ac:dyDescent="0.2">
+    <row r="59" spans="4:8" x14ac:dyDescent="0.3">
       <c r="D59" s="2">
         <v>99</v>
       </c>
@@ -1638,7 +1663,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="60" spans="4:8" x14ac:dyDescent="0.2">
+    <row r="60" spans="4:8" x14ac:dyDescent="0.3">
       <c r="D60" s="2">
         <v>97</v>
       </c>
@@ -1655,7 +1680,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="61" spans="4:8" x14ac:dyDescent="0.2">
+    <row r="61" spans="4:8" x14ac:dyDescent="0.3">
       <c r="D61" s="2">
         <v>66</v>
       </c>
@@ -1672,7 +1697,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="62" spans="4:8" x14ac:dyDescent="0.2">
+    <row r="62" spans="4:8" x14ac:dyDescent="0.3">
       <c r="D62" s="2">
         <v>99</v>
       </c>
@@ -1689,7 +1714,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="63" spans="4:8" x14ac:dyDescent="0.2">
+    <row r="63" spans="4:8" x14ac:dyDescent="0.3">
       <c r="D63" s="2">
         <v>63</v>
       </c>
@@ -1706,7 +1731,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="64" spans="4:8" x14ac:dyDescent="0.2">
+    <row r="64" spans="4:8" x14ac:dyDescent="0.3">
       <c r="D64" s="2">
         <v>53</v>
       </c>
@@ -1723,7 +1748,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="65" spans="4:8" x14ac:dyDescent="0.2">
+    <row r="65" spans="4:8" x14ac:dyDescent="0.3">
       <c r="D65" s="2">
         <v>98</v>
       </c>
@@ -1740,7 +1765,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="66" spans="4:8" x14ac:dyDescent="0.2">
+    <row r="66" spans="4:8" x14ac:dyDescent="0.3">
       <c r="D66" s="2">
         <v>89</v>
       </c>
@@ -1757,7 +1782,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="67" spans="4:8" x14ac:dyDescent="0.2">
+    <row r="67" spans="4:8" x14ac:dyDescent="0.3">
       <c r="D67" s="2">
         <v>99</v>
       </c>
@@ -1774,7 +1799,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="68" spans="4:8" x14ac:dyDescent="0.2">
+    <row r="68" spans="4:8" x14ac:dyDescent="0.3">
       <c r="D68" s="2">
         <v>97</v>
       </c>
@@ -1791,7 +1816,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="69" spans="4:8" x14ac:dyDescent="0.2">
+    <row r="69" spans="4:8" x14ac:dyDescent="0.3">
       <c r="D69" s="2">
         <v>85</v>
       </c>
@@ -1808,7 +1833,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="70" spans="4:8" x14ac:dyDescent="0.2">
+    <row r="70" spans="4:8" x14ac:dyDescent="0.3">
       <c r="D70" s="2">
         <v>99</v>
       </c>
@@ -1825,7 +1850,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="71" spans="4:8" x14ac:dyDescent="0.2">
+    <row r="71" spans="4:8" x14ac:dyDescent="0.3">
       <c r="D71" s="2">
         <v>98</v>
       </c>
@@ -1842,7 +1867,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="72" spans="4:8" x14ac:dyDescent="0.2">
+    <row r="72" spans="4:8" x14ac:dyDescent="0.3">
       <c r="D72" s="2">
         <v>89</v>
       </c>
@@ -1859,7 +1884,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="73" spans="4:8" x14ac:dyDescent="0.2">
+    <row r="73" spans="4:8" x14ac:dyDescent="0.3">
       <c r="D73" s="2">
         <v>61</v>
       </c>
@@ -1876,7 +1901,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="74" spans="4:8" x14ac:dyDescent="0.2">
+    <row r="74" spans="4:8" x14ac:dyDescent="0.3">
       <c r="D74" s="2">
         <v>94</v>
       </c>
@@ -1893,7 +1918,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="75" spans="4:8" x14ac:dyDescent="0.2">
+    <row r="75" spans="4:8" x14ac:dyDescent="0.3">
       <c r="D75" s="2">
         <v>78</v>
       </c>
@@ -1910,7 +1935,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="76" spans="4:8" x14ac:dyDescent="0.2">
+    <row r="76" spans="4:8" x14ac:dyDescent="0.3">
       <c r="D76" s="2">
         <v>79</v>
       </c>
@@ -1927,7 +1952,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="77" spans="4:8" x14ac:dyDescent="0.2">
+    <row r="77" spans="4:8" x14ac:dyDescent="0.3">
       <c r="D77" s="2">
         <v>99</v>
       </c>
@@ -1944,7 +1969,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="78" spans="4:8" x14ac:dyDescent="0.2">
+    <row r="78" spans="4:8" x14ac:dyDescent="0.3">
       <c r="D78" s="2">
         <v>74</v>
       </c>
@@ -1961,7 +1986,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="79" spans="4:8" x14ac:dyDescent="0.2">
+    <row r="79" spans="4:8" x14ac:dyDescent="0.3">
       <c r="D79" s="2">
         <v>78</v>
       </c>
@@ -1978,7 +2003,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="80" spans="4:8" x14ac:dyDescent="0.2">
+    <row r="80" spans="4:8" x14ac:dyDescent="0.3">
       <c r="D80" s="2">
         <v>66</v>
       </c>
@@ -1995,7 +2020,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="81" spans="4:8" x14ac:dyDescent="0.2">
+    <row r="81" spans="4:8" x14ac:dyDescent="0.3">
       <c r="D81" s="2">
         <v>75</v>
       </c>
@@ -2012,7 +2037,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="82" spans="4:8" x14ac:dyDescent="0.2">
+    <row r="82" spans="4:8" x14ac:dyDescent="0.3">
       <c r="D82" s="2">
         <v>91</v>
       </c>
@@ -2029,7 +2054,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="83" spans="4:8" x14ac:dyDescent="0.2">
+    <row r="83" spans="4:8" x14ac:dyDescent="0.3">
       <c r="D83" s="2">
         <v>72</v>
       </c>
@@ -2046,7 +2071,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="84" spans="4:8" x14ac:dyDescent="0.2">
+    <row r="84" spans="4:8" x14ac:dyDescent="0.3">
       <c r="D84" s="2">
         <v>98</v>
       </c>
@@ -2063,7 +2088,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="85" spans="4:8" x14ac:dyDescent="0.2">
+    <row r="85" spans="4:8" x14ac:dyDescent="0.3">
       <c r="D85" s="2">
         <v>99</v>
       </c>
@@ -2080,7 +2105,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="86" spans="4:8" x14ac:dyDescent="0.2">
+    <row r="86" spans="4:8" x14ac:dyDescent="0.3">
       <c r="D86" s="2">
         <v>82</v>
       </c>
@@ -2097,7 +2122,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="87" spans="4:8" x14ac:dyDescent="0.2">
+    <row r="87" spans="4:8" x14ac:dyDescent="0.3">
       <c r="D87" s="2">
         <v>87</v>
       </c>
@@ -2114,7 +2139,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="88" spans="4:8" x14ac:dyDescent="0.2">
+    <row r="88" spans="4:8" x14ac:dyDescent="0.3">
       <c r="D88" s="2">
         <v>57</v>
       </c>
@@ -2131,7 +2156,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="89" spans="4:8" x14ac:dyDescent="0.2">
+    <row r="89" spans="4:8" x14ac:dyDescent="0.3">
       <c r="D89" s="2">
         <v>99</v>
       </c>
@@ -2148,7 +2173,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="90" spans="4:8" x14ac:dyDescent="0.2">
+    <row r="90" spans="4:8" x14ac:dyDescent="0.3">
       <c r="D90" s="2">
         <v>99</v>
       </c>
@@ -2165,7 +2190,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="91" spans="4:8" x14ac:dyDescent="0.2">
+    <row r="91" spans="4:8" x14ac:dyDescent="0.3">
       <c r="D91" s="2">
         <v>78</v>
       </c>
@@ -2182,7 +2207,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="92" spans="4:8" x14ac:dyDescent="0.2">
+    <row r="92" spans="4:8" x14ac:dyDescent="0.3">
       <c r="D92" s="2">
         <v>78</v>
       </c>
@@ -2199,7 +2224,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="93" spans="4:8" x14ac:dyDescent="0.2">
+    <row r="93" spans="4:8" x14ac:dyDescent="0.3">
       <c r="D93" s="2">
         <v>80</v>
       </c>
@@ -2216,7 +2241,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="94" spans="4:8" x14ac:dyDescent="0.2">
+    <row r="94" spans="4:8" x14ac:dyDescent="0.3">
       <c r="D94" s="2">
         <v>85</v>
       </c>
@@ -2233,7 +2258,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="95" spans="4:8" x14ac:dyDescent="0.2">
+    <row r="95" spans="4:8" x14ac:dyDescent="0.3">
       <c r="D95" s="2">
         <v>64</v>
       </c>
@@ -2250,7 +2275,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="96" spans="4:8" x14ac:dyDescent="0.2">
+    <row r="96" spans="4:8" x14ac:dyDescent="0.3">
       <c r="D96" s="2">
         <v>77</v>
       </c>
@@ -2267,7 +2292,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="97" spans="4:8" x14ac:dyDescent="0.2">
+    <row r="97" spans="4:8" x14ac:dyDescent="0.3">
       <c r="D97" s="2">
         <v>93</v>
       </c>
@@ -2284,7 +2309,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="98" spans="4:8" x14ac:dyDescent="0.2">
+    <row r="98" spans="4:8" x14ac:dyDescent="0.3">
       <c r="D98" s="2">
         <v>52</v>
       </c>
@@ -2301,7 +2326,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="99" spans="4:8" x14ac:dyDescent="0.2">
+    <row r="99" spans="4:8" x14ac:dyDescent="0.3">
       <c r="D99" s="2">
         <v>81</v>
       </c>
@@ -2318,7 +2343,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="100" spans="4:8" x14ac:dyDescent="0.2">
+    <row r="100" spans="4:8" x14ac:dyDescent="0.3">
       <c r="D100" s="2">
         <v>63</v>
       </c>
@@ -2335,7 +2360,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="101" spans="4:8" x14ac:dyDescent="0.2">
+    <row r="101" spans="4:8" x14ac:dyDescent="0.3">
       <c r="D101" s="2">
         <v>86</v>
       </c>
@@ -2352,7 +2377,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="102" spans="4:8" x14ac:dyDescent="0.2">
+    <row r="102" spans="4:8" x14ac:dyDescent="0.3">
       <c r="D102" s="2">
         <v>97</v>
       </c>
@@ -2369,7 +2394,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="103" spans="4:8" x14ac:dyDescent="0.2">
+    <row r="103" spans="4:8" x14ac:dyDescent="0.3">
       <c r="D103" s="2">
         <v>97</v>
       </c>
@@ -2386,7 +2411,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="104" spans="4:8" x14ac:dyDescent="0.2">
+    <row r="104" spans="4:8" x14ac:dyDescent="0.3">
       <c r="D104" s="2">
         <v>92</v>
       </c>
@@ -2403,7 +2428,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="105" spans="4:8" x14ac:dyDescent="0.2">
+    <row r="105" spans="4:8" x14ac:dyDescent="0.3">
       <c r="D105" s="2">
         <v>98</v>
       </c>
@@ -2420,7 +2445,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="106" spans="4:8" x14ac:dyDescent="0.2">
+    <row r="106" spans="4:8" x14ac:dyDescent="0.3">
       <c r="D106" s="2">
         <v>68</v>
       </c>
@@ -2437,7 +2462,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="107" spans="4:8" x14ac:dyDescent="0.2">
+    <row r="107" spans="4:8" x14ac:dyDescent="0.3">
       <c r="D107" s="2">
         <v>91</v>
       </c>
@@ -2454,7 +2479,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="108" spans="4:8" x14ac:dyDescent="0.2">
+    <row r="108" spans="4:8" x14ac:dyDescent="0.3">
       <c r="D108" s="2">
         <v>99</v>
       </c>
@@ -2471,7 +2496,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="109" spans="4:8" x14ac:dyDescent="0.2">
+    <row r="109" spans="4:8" x14ac:dyDescent="0.3">
       <c r="D109" s="2">
         <v>75</v>
       </c>
@@ -2488,7 +2513,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="110" spans="4:8" x14ac:dyDescent="0.2">
+    <row r="110" spans="4:8" x14ac:dyDescent="0.3">
       <c r="D110" s="2">
         <v>88</v>
       </c>
@@ -2505,7 +2530,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="111" spans="4:8" x14ac:dyDescent="0.2">
+    <row r="111" spans="4:8" x14ac:dyDescent="0.3">
       <c r="D111" s="2">
         <v>88</v>
       </c>
@@ -2522,7 +2547,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="112" spans="4:8" x14ac:dyDescent="0.2">
+    <row r="112" spans="4:8" x14ac:dyDescent="0.3">
       <c r="D112" s="2">
         <v>96</v>
       </c>
@@ -2539,7 +2564,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="113" spans="4:8" x14ac:dyDescent="0.2">
+    <row r="113" spans="4:8" x14ac:dyDescent="0.3">
       <c r="D113" s="2">
         <v>68</v>
       </c>
@@ -2556,7 +2581,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="114" spans="4:8" x14ac:dyDescent="0.2">
+    <row r="114" spans="4:8" x14ac:dyDescent="0.3">
       <c r="D114" s="2">
         <v>99</v>
       </c>
@@ -2573,7 +2598,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="115" spans="4:8" x14ac:dyDescent="0.2">
+    <row r="115" spans="4:8" x14ac:dyDescent="0.3">
       <c r="D115" s="2">
         <v>72</v>
       </c>
@@ -2590,7 +2615,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="116" spans="4:8" x14ac:dyDescent="0.2">
+    <row r="116" spans="4:8" x14ac:dyDescent="0.3">
       <c r="D116" s="2">
         <v>70</v>
       </c>
@@ -2607,7 +2632,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="117" spans="4:8" x14ac:dyDescent="0.2">
+    <row r="117" spans="4:8" x14ac:dyDescent="0.3">
       <c r="D117" s="2">
         <v>97</v>
       </c>
@@ -2624,7 +2649,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="118" spans="4:8" x14ac:dyDescent="0.2">
+    <row r="118" spans="4:8" x14ac:dyDescent="0.3">
       <c r="D118" s="2">
         <v>58</v>
       </c>
@@ -2641,7 +2666,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="119" spans="4:8" x14ac:dyDescent="0.2">
+    <row r="119" spans="4:8" x14ac:dyDescent="0.3">
       <c r="D119" s="2">
         <v>72</v>
       </c>
@@ -2658,7 +2683,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="120" spans="4:8" x14ac:dyDescent="0.2">
+    <row r="120" spans="4:8" x14ac:dyDescent="0.3">
       <c r="D120" s="2">
         <v>57</v>
       </c>
@@ -2675,7 +2700,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="121" spans="4:8" x14ac:dyDescent="0.2">
+    <row r="121" spans="4:8" x14ac:dyDescent="0.3">
       <c r="D121" s="2">
         <v>92</v>
       </c>
@@ -2692,7 +2717,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="122" spans="4:8" x14ac:dyDescent="0.2">
+    <row r="122" spans="4:8" x14ac:dyDescent="0.3">
       <c r="D122" s="2">
         <v>74</v>
       </c>
@@ -2709,7 +2734,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="123" spans="4:8" x14ac:dyDescent="0.2">
+    <row r="123" spans="4:8" x14ac:dyDescent="0.3">
       <c r="D123" s="2">
         <v>69</v>
       </c>
@@ -2726,7 +2751,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="124" spans="4:8" x14ac:dyDescent="0.2">
+    <row r="124" spans="4:8" x14ac:dyDescent="0.3">
       <c r="D124" s="2">
         <v>68</v>
       </c>
@@ -2743,7 +2768,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="125" spans="4:8" x14ac:dyDescent="0.2">
+    <row r="125" spans="4:8" x14ac:dyDescent="0.3">
       <c r="D125" s="2">
         <v>50</v>
       </c>
@@ -2760,7 +2785,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="126" spans="4:8" x14ac:dyDescent="0.2">
+    <row r="126" spans="4:8" x14ac:dyDescent="0.3">
       <c r="D126" s="2">
         <v>76</v>
       </c>
@@ -2777,7 +2802,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="127" spans="4:8" x14ac:dyDescent="0.2">
+    <row r="127" spans="4:8" x14ac:dyDescent="0.3">
       <c r="D127" s="2">
         <v>76</v>
       </c>
@@ -2794,7 +2819,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="128" spans="4:8" x14ac:dyDescent="0.2">
+    <row r="128" spans="4:8" x14ac:dyDescent="0.3">
       <c r="D128" s="2">
         <v>71</v>
       </c>
@@ -2811,7 +2836,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="129" spans="4:8" x14ac:dyDescent="0.2">
+    <row r="129" spans="4:8" x14ac:dyDescent="0.3">
       <c r="D129" s="2">
         <v>64</v>
       </c>
@@ -2828,7 +2853,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="130" spans="4:8" x14ac:dyDescent="0.2">
+    <row r="130" spans="4:8" x14ac:dyDescent="0.3">
       <c r="D130" s="2">
         <v>47</v>
       </c>
@@ -2845,7 +2870,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="131" spans="4:8" x14ac:dyDescent="0.2">
+    <row r="131" spans="4:8" x14ac:dyDescent="0.3">
       <c r="D131" s="2">
         <v>97</v>
       </c>
@@ -2862,7 +2887,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="132" spans="4:8" x14ac:dyDescent="0.2">
+    <row r="132" spans="4:8" x14ac:dyDescent="0.3">
       <c r="D132" s="2">
         <v>99</v>
       </c>
@@ -2879,7 +2904,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="133" spans="4:8" x14ac:dyDescent="0.2">
+    <row r="133" spans="4:8" x14ac:dyDescent="0.3">
       <c r="D133" s="2">
         <v>65</v>
       </c>
@@ -2896,7 +2921,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="134" spans="4:8" x14ac:dyDescent="0.2">
+    <row r="134" spans="4:8" x14ac:dyDescent="0.3">
       <c r="D134" s="2">
         <v>71</v>
       </c>
@@ -2913,7 +2938,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="135" spans="4:8" x14ac:dyDescent="0.2">
+    <row r="135" spans="4:8" x14ac:dyDescent="0.3">
       <c r="D135" s="2">
         <v>80</v>
       </c>
@@ -2930,7 +2955,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="136" spans="4:8" x14ac:dyDescent="0.2">
+    <row r="136" spans="4:8" x14ac:dyDescent="0.3">
       <c r="D136" s="2">
         <v>81</v>
       </c>
@@ -2947,7 +2972,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="137" spans="4:8" x14ac:dyDescent="0.2">
+    <row r="137" spans="4:8" x14ac:dyDescent="0.3">
       <c r="D137" s="2">
         <v>99</v>
       </c>
@@ -2964,7 +2989,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="138" spans="4:8" x14ac:dyDescent="0.2">
+    <row r="138" spans="4:8" x14ac:dyDescent="0.3">
       <c r="D138" s="2">
         <v>83</v>
       </c>
@@ -2981,7 +3006,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="139" spans="4:8" x14ac:dyDescent="0.2">
+    <row r="139" spans="4:8" x14ac:dyDescent="0.3">
       <c r="D139" s="2">
         <v>70</v>
       </c>
@@ -2998,7 +3023,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="140" spans="4:8" x14ac:dyDescent="0.2">
+    <row r="140" spans="4:8" x14ac:dyDescent="0.3">
       <c r="D140" s="2">
         <v>78</v>
       </c>
@@ -3015,7 +3040,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="141" spans="4:8" x14ac:dyDescent="0.2">
+    <row r="141" spans="4:8" x14ac:dyDescent="0.3">
       <c r="D141" s="2">
         <v>97</v>
       </c>
@@ -3032,7 +3057,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="142" spans="4:8" x14ac:dyDescent="0.2">
+    <row r="142" spans="4:8" x14ac:dyDescent="0.3">
       <c r="D142" s="2">
         <v>75</v>
       </c>
@@ -3049,7 +3074,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="143" spans="4:8" x14ac:dyDescent="0.2">
+    <row r="143" spans="4:8" x14ac:dyDescent="0.3">
       <c r="D143" s="2">
         <v>97</v>
       </c>
@@ -3066,7 +3091,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="144" spans="4:8" x14ac:dyDescent="0.2">
+    <row r="144" spans="4:8" x14ac:dyDescent="0.3">
       <c r="D144" s="2">
         <v>61</v>
       </c>
@@ -3083,7 +3108,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="145" spans="4:8" x14ac:dyDescent="0.2">
+    <row r="145" spans="4:8" x14ac:dyDescent="0.3">
       <c r="D145" s="2">
         <v>97</v>
       </c>
@@ -3100,7 +3125,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="146" spans="4:8" x14ac:dyDescent="0.2">
+    <row r="146" spans="4:8" x14ac:dyDescent="0.3">
       <c r="D146" s="2">
         <v>70</v>
       </c>
@@ -3117,7 +3142,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="147" spans="4:8" x14ac:dyDescent="0.2">
+    <row r="147" spans="4:8" x14ac:dyDescent="0.3">
       <c r="D147" s="2">
         <v>90</v>
       </c>
@@ -3134,7 +3159,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="148" spans="4:8" x14ac:dyDescent="0.2">
+    <row r="148" spans="4:8" x14ac:dyDescent="0.3">
       <c r="D148" s="2">
         <v>81</v>
       </c>
@@ -3151,7 +3176,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="149" spans="4:8" x14ac:dyDescent="0.2">
+    <row r="149" spans="4:8" x14ac:dyDescent="0.3">
       <c r="D149" s="2">
         <v>99</v>
       </c>
@@ -3168,7 +3193,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="150" spans="4:8" x14ac:dyDescent="0.2">
+    <row r="150" spans="4:8" x14ac:dyDescent="0.3">
       <c r="D150" s="2">
         <v>81</v>
       </c>
@@ -3185,7 +3210,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="151" spans="4:8" x14ac:dyDescent="0.2">
+    <row r="151" spans="4:8" x14ac:dyDescent="0.3">
       <c r="D151" s="2">
         <v>98</v>
       </c>
@@ -3202,7 +3227,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="152" spans="4:8" x14ac:dyDescent="0.2">
+    <row r="152" spans="4:8" x14ac:dyDescent="0.3">
       <c r="D152" s="2">
         <v>77</v>
       </c>
@@ -3219,7 +3244,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="153" spans="4:8" x14ac:dyDescent="0.2">
+    <row r="153" spans="4:8" x14ac:dyDescent="0.3">
       <c r="D153" s="2">
         <v>99</v>
       </c>
@@ -3236,7 +3261,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="154" spans="4:8" x14ac:dyDescent="0.2">
+    <row r="154" spans="4:8" x14ac:dyDescent="0.3">
       <c r="D154" s="2">
         <v>97</v>
       </c>
@@ -3253,7 +3278,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="155" spans="4:8" x14ac:dyDescent="0.2">
+    <row r="155" spans="4:8" x14ac:dyDescent="0.3">
       <c r="D155" s="2">
         <v>93</v>
       </c>
@@ -3270,7 +3295,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="156" spans="4:8" x14ac:dyDescent="0.2">
+    <row r="156" spans="4:8" x14ac:dyDescent="0.3">
       <c r="D156" s="2">
         <v>64</v>
       </c>
@@ -3287,7 +3312,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="157" spans="4:8" x14ac:dyDescent="0.2">
+    <row r="157" spans="4:8" x14ac:dyDescent="0.3">
       <c r="D157" s="2">
         <v>95</v>
       </c>
@@ -3304,7 +3329,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="158" spans="4:8" x14ac:dyDescent="0.2">
+    <row r="158" spans="4:8" x14ac:dyDescent="0.3">
       <c r="D158" s="2">
         <v>97</v>
       </c>
@@ -3321,7 +3346,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="159" spans="4:8" x14ac:dyDescent="0.2">
+    <row r="159" spans="4:8" x14ac:dyDescent="0.3">
       <c r="D159" s="2">
         <v>80</v>
       </c>
@@ -3338,7 +3363,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="160" spans="4:8" x14ac:dyDescent="0.2">
+    <row r="160" spans="4:8" x14ac:dyDescent="0.3">
       <c r="D160" s="2">
         <v>99</v>
       </c>
@@ -3355,7 +3380,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="161" spans="4:8" x14ac:dyDescent="0.2">
+    <row r="161" spans="4:8" x14ac:dyDescent="0.3">
       <c r="D161" s="2">
         <v>80</v>
       </c>
@@ -3372,7 +3397,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="162" spans="4:8" x14ac:dyDescent="0.2">
+    <row r="162" spans="4:8" x14ac:dyDescent="0.3">
       <c r="D162" s="2">
         <v>90</v>
       </c>
@@ -3389,7 +3414,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="163" spans="4:8" x14ac:dyDescent="0.2">
+    <row r="163" spans="4:8" x14ac:dyDescent="0.3">
       <c r="D163" s="2">
         <v>98</v>
       </c>
@@ -3406,7 +3431,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="164" spans="4:8" x14ac:dyDescent="0.2">
+    <row r="164" spans="4:8" x14ac:dyDescent="0.3">
       <c r="D164" s="2">
         <v>74</v>
       </c>
@@ -3423,7 +3448,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="165" spans="4:8" x14ac:dyDescent="0.2">
+    <row r="165" spans="4:8" x14ac:dyDescent="0.3">
       <c r="D165" s="2">
         <v>84</v>
       </c>
@@ -3440,7 +3465,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="166" spans="4:8" x14ac:dyDescent="0.2">
+    <row r="166" spans="4:8" x14ac:dyDescent="0.3">
       <c r="D166" s="2">
         <v>95</v>
       </c>
@@ -3457,7 +3482,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="167" spans="4:8" x14ac:dyDescent="0.2">
+    <row r="167" spans="4:8" x14ac:dyDescent="0.3">
       <c r="D167" s="2">
         <v>83</v>
       </c>
@@ -3474,7 +3499,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="168" spans="4:8" x14ac:dyDescent="0.2">
+    <row r="168" spans="4:8" x14ac:dyDescent="0.3">
       <c r="D168" s="2">
         <v>90</v>
       </c>
@@ -3491,7 +3516,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="169" spans="4:8" x14ac:dyDescent="0.2">
+    <row r="169" spans="4:8" x14ac:dyDescent="0.3">
       <c r="D169" s="2">
         <v>91</v>
       </c>
@@ -3508,7 +3533,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="170" spans="4:8" x14ac:dyDescent="0.2">
+    <row r="170" spans="4:8" x14ac:dyDescent="0.3">
       <c r="D170" s="2">
         <v>83</v>
       </c>
@@ -3525,7 +3550,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="171" spans="4:8" x14ac:dyDescent="0.2">
+    <row r="171" spans="4:8" x14ac:dyDescent="0.3">
       <c r="D171" s="2">
         <v>84</v>
       </c>
@@ -3542,7 +3567,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="172" spans="4:8" x14ac:dyDescent="0.2">
+    <row r="172" spans="4:8" x14ac:dyDescent="0.3">
       <c r="D172" s="2">
         <v>65</v>
       </c>
@@ -3559,7 +3584,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="173" spans="4:8" x14ac:dyDescent="0.2">
+    <row r="173" spans="4:8" x14ac:dyDescent="0.3">
       <c r="D173" s="2">
         <v>94</v>
       </c>
@@ -3576,7 +3601,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="174" spans="4:8" x14ac:dyDescent="0.2">
+    <row r="174" spans="4:8" x14ac:dyDescent="0.3">
       <c r="D174" s="2">
         <v>88</v>
       </c>
@@ -3593,7 +3618,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="175" spans="4:8" x14ac:dyDescent="0.2">
+    <row r="175" spans="4:8" x14ac:dyDescent="0.3">
       <c r="D175" s="2">
         <v>94</v>
       </c>
@@ -3610,7 +3635,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="176" spans="4:8" x14ac:dyDescent="0.2">
+    <row r="176" spans="4:8" x14ac:dyDescent="0.3">
       <c r="D176" s="2">
         <v>74</v>
       </c>
@@ -3627,7 +3652,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="177" spans="4:8" x14ac:dyDescent="0.2">
+    <row r="177" spans="4:8" x14ac:dyDescent="0.3">
       <c r="D177" s="2">
         <v>97</v>
       </c>
@@ -3644,7 +3669,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="178" spans="4:8" x14ac:dyDescent="0.2">
+    <row r="178" spans="4:8" x14ac:dyDescent="0.3">
       <c r="D178" s="2">
         <v>94</v>
       </c>
@@ -3661,7 +3686,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="179" spans="4:8" x14ac:dyDescent="0.2">
+    <row r="179" spans="4:8" x14ac:dyDescent="0.3">
       <c r="D179" s="2">
         <v>83</v>
       </c>
@@ -3678,7 +3703,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="180" spans="4:8" x14ac:dyDescent="0.2">
+    <row r="180" spans="4:8" x14ac:dyDescent="0.3">
       <c r="D180" s="2">
         <v>67</v>
       </c>
@@ -3695,7 +3720,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="181" spans="4:8" x14ac:dyDescent="0.2">
+    <row r="181" spans="4:8" x14ac:dyDescent="0.3">
       <c r="D181" s="2">
         <v>64</v>
       </c>
@@ -3712,7 +3737,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="182" spans="4:8" x14ac:dyDescent="0.2">
+    <row r="182" spans="4:8" x14ac:dyDescent="0.3">
       <c r="D182" s="2">
         <v>92</v>
       </c>
@@ -3729,7 +3754,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="183" spans="4:8" x14ac:dyDescent="0.2">
+    <row r="183" spans="4:8" x14ac:dyDescent="0.3">
       <c r="D183" s="2">
         <v>84</v>
       </c>
@@ -3746,7 +3771,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="184" spans="4:8" x14ac:dyDescent="0.2">
+    <row r="184" spans="4:8" x14ac:dyDescent="0.3">
       <c r="D184" s="2">
         <v>99</v>
       </c>
@@ -3763,7 +3788,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="185" spans="4:8" x14ac:dyDescent="0.2">
+    <row r="185" spans="4:8" x14ac:dyDescent="0.3">
       <c r="D185" s="2">
         <v>87</v>
       </c>
@@ -3780,7 +3805,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="186" spans="4:8" x14ac:dyDescent="0.2">
+    <row r="186" spans="4:8" x14ac:dyDescent="0.3">
       <c r="D186" s="2">
         <v>98</v>
       </c>
@@ -3797,7 +3822,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="187" spans="4:8" x14ac:dyDescent="0.2">
+    <row r="187" spans="4:8" x14ac:dyDescent="0.3">
       <c r="D187" s="2">
         <v>68</v>
       </c>
@@ -3814,7 +3839,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="188" spans="4:8" x14ac:dyDescent="0.2">
+    <row r="188" spans="4:8" x14ac:dyDescent="0.3">
       <c r="D188" s="2">
         <v>83</v>
       </c>
@@ -3831,7 +3856,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="189" spans="4:8" x14ac:dyDescent="0.2">
+    <row r="189" spans="4:8" x14ac:dyDescent="0.3">
       <c r="D189" s="2">
         <v>76</v>
       </c>
@@ -3848,7 +3873,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="190" spans="4:8" x14ac:dyDescent="0.2">
+    <row r="190" spans="4:8" x14ac:dyDescent="0.3">
       <c r="D190" s="2">
         <v>95</v>
       </c>
@@ -3865,7 +3890,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="191" spans="4:8" x14ac:dyDescent="0.2">
+    <row r="191" spans="4:8" x14ac:dyDescent="0.3">
       <c r="D191" s="2">
         <v>91</v>
       </c>
@@ -3882,7 +3907,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="192" spans="4:8" x14ac:dyDescent="0.2">
+    <row r="192" spans="4:8" x14ac:dyDescent="0.3">
       <c r="D192" s="2">
         <v>74</v>
       </c>
@@ -3899,7 +3924,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="193" spans="4:8" x14ac:dyDescent="0.2">
+    <row r="193" spans="4:8" x14ac:dyDescent="0.3">
       <c r="D193" s="2">
         <v>70</v>
       </c>
@@ -3916,7 +3941,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="194" spans="4:8" x14ac:dyDescent="0.2">
+    <row r="194" spans="4:8" x14ac:dyDescent="0.3">
       <c r="D194" s="2">
         <v>99</v>
       </c>
@@ -3933,7 +3958,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="195" spans="4:8" x14ac:dyDescent="0.2">
+    <row r="195" spans="4:8" x14ac:dyDescent="0.3">
       <c r="D195" s="2">
         <v>89</v>
       </c>
@@ -3950,7 +3975,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="196" spans="4:8" x14ac:dyDescent="0.2">
+    <row r="196" spans="4:8" x14ac:dyDescent="0.3">
       <c r="D196" s="2">
         <v>70</v>
       </c>
@@ -3967,7 +3992,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="197" spans="4:8" x14ac:dyDescent="0.2">
+    <row r="197" spans="4:8" x14ac:dyDescent="0.3">
       <c r="D197" s="2">
         <v>86</v>
       </c>
@@ -3984,7 +4009,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="198" spans="4:8" x14ac:dyDescent="0.2">
+    <row r="198" spans="4:8" x14ac:dyDescent="0.3">
       <c r="D198" s="2">
         <v>89</v>
       </c>
@@ -4001,7 +4026,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="199" spans="4:8" x14ac:dyDescent="0.2">
+    <row r="199" spans="4:8" x14ac:dyDescent="0.3">
       <c r="D199" s="2">
         <v>80</v>
       </c>
@@ -4018,7 +4043,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="200" spans="4:8" x14ac:dyDescent="0.2">
+    <row r="200" spans="4:8" x14ac:dyDescent="0.3">
       <c r="D200" s="2">
         <v>76</v>
       </c>
@@ -4035,7 +4060,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="201" spans="4:8" x14ac:dyDescent="0.2">
+    <row r="201" spans="4:8" x14ac:dyDescent="0.3">
       <c r="D201" s="2">
         <v>92</v>
       </c>
@@ -4052,7 +4077,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="202" spans="4:8" x14ac:dyDescent="0.2">
+    <row r="202" spans="4:8" x14ac:dyDescent="0.3">
       <c r="D202" s="2">
         <v>99</v>
       </c>
@@ -4091,9 +4116,9 @@
       <selection activeCell="D3" sqref="D3:H7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A1" s="9" t="s">
         <v>0</v>
       </c>
@@ -4110,7 +4135,7 @@
       <c r="J1" s="9"/>
       <c r="K1" s="9"/>
     </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>2</v>
       </c>
@@ -4145,7 +4170,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>13</v>
       </c>
@@ -4177,7 +4202,7 @@
         <v>0.78849999999999998</v>
       </c>
     </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>14</v>
       </c>
@@ -4209,7 +4234,7 @@
         <v>0.66099999999999992</v>
       </c>
     </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>15</v>
       </c>
@@ -4241,7 +4266,7 @@
         <v>0.91549999999999987</v>
       </c>
     </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>16</v>
       </c>
@@ -4273,7 +4298,7 @@
         <v>0.81550000000000011</v>
       </c>
     </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>17</v>
       </c>
@@ -4305,7 +4330,7 @@
         <v>0.78450000000000009</v>
       </c>
     </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:11" x14ac:dyDescent="0.3">
       <c r="I8" s="7">
         <f>AVERAGE(I3:I7)</f>
         <v>0.84399999999999997</v>
@@ -4337,9 +4362,9 @@
       <selection activeCell="L13" sqref="L13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A1" s="9" t="s">
         <v>0</v>
       </c>
@@ -4356,7 +4381,7 @@
       <c r="J1" s="9"/>
       <c r="K1" s="9"/>
     </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>2</v>
       </c>
@@ -4391,7 +4416,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>13</v>
       </c>
@@ -4423,7 +4448,7 @@
         <v>0.91299999999999981</v>
       </c>
     </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>14</v>
       </c>
@@ -4455,7 +4480,7 @@
         <v>0.91300000000000014</v>
       </c>
     </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>15</v>
       </c>
@@ -4487,7 +4512,7 @@
         <v>0.75849999999999995</v>
       </c>
     </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>16</v>
       </c>
@@ -4519,7 +4544,7 @@
         <v>0.83000000000000007</v>
       </c>
     </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>17</v>
       </c>
@@ -4551,7 +4576,7 @@
         <v>0.76150000000000007</v>
       </c>
     </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:11" x14ac:dyDescent="0.3">
       <c r="I8" s="7">
         <f>AVERAGE(I3:I7)</f>
         <v>0.84800000000000009</v>
@@ -4579,13 +4604,13 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3F968D47-50FE-4C24-91B6-E59E32443195}">
   <dimension ref="A1:K3"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView topLeftCell="C1" workbookViewId="0">
       <selection sqref="A1:C1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A1" s="9"/>
       <c r="B1" s="9"/>
       <c r="C1" s="9"/>
@@ -4598,7 +4623,7 @@
       <c r="J1" s="9"/>
       <c r="K1" s="9"/>
     </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:11" x14ac:dyDescent="0.3">
       <c r="D3" s="1"/>
       <c r="E3" s="1"/>
       <c r="F3" s="1"/>
@@ -4620,138 +4645,368 @@
 
 <file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3D08F1BA-B709-4F8D-B26C-E246F1F6B87F}">
-  <dimension ref="A1:C11"/>
+  <dimension ref="A1:E31"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F27" sqref="F27"/>
+      <selection activeCell="C12" sqref="C12:E12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
+        <v>21</v>
+      </c>
+      <c r="B1" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A2" t="s">
         <v>10</v>
       </c>
-      <c r="B1" t="s">
-        <v>11</v>
-      </c>
-      <c r="C1" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A2" s="1">
+      <c r="B2" s="1">
         <v>0.77200000000000002</v>
       </c>
-      <c r="B2" s="1">
+      <c r="C2" s="1">
+        <v>0.77200000000000002</v>
+      </c>
+      <c r="D2" s="1">
         <v>0.75500000000000012</v>
       </c>
-      <c r="C2" s="1">
+      <c r="E2" s="1">
         <v>0.73199999999999998</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A3" s="1">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A3" t="s">
+        <v>10</v>
+      </c>
+      <c r="B3" s="1">
         <v>0.79399999999999993</v>
       </c>
-      <c r="B3" s="1">
+      <c r="C3" s="1">
+        <v>0.79399999999999993</v>
+      </c>
+      <c r="D3" s="1">
         <v>0.80259999999999998</v>
       </c>
-      <c r="C3" s="1">
+      <c r="E3" s="1">
         <v>0.78410000000000002</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A4" s="1">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A4" t="s">
+        <v>18</v>
+      </c>
+      <c r="B4" s="1">
         <v>0.88200000000000001</v>
       </c>
-      <c r="B4" s="1">
+      <c r="C4" s="1">
+        <v>0.88200000000000001</v>
+      </c>
+      <c r="D4" s="1">
         <v>0.85940000000000016</v>
       </c>
-      <c r="C4" s="1">
+      <c r="E4" s="1">
         <v>0.82899999999999996</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A5" s="1">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A5" t="s">
+        <v>18</v>
+      </c>
+      <c r="B5" s="1">
         <v>0.876</v>
       </c>
-      <c r="B5" s="1">
+      <c r="C5" s="1">
+        <v>0.876</v>
+      </c>
+      <c r="D5" s="1">
         <v>0.86839999999999995</v>
       </c>
-      <c r="C5" s="1">
+      <c r="E5" s="1">
         <v>0.84110000000000018</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A6" s="7">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A6" t="s">
+        <v>18</v>
+      </c>
+      <c r="B6" s="7">
         <v>0.86</v>
       </c>
-      <c r="B6" s="7">
+      <c r="C6" s="7">
+        <v>0.86</v>
+      </c>
+      <c r="D6" s="7">
         <v>0.85</v>
       </c>
-      <c r="C6" s="7">
+      <c r="E6" s="7">
         <v>0.83</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A7" s="7">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A7" t="s">
+        <v>18</v>
+      </c>
+      <c r="B7" s="7">
         <v>0.86</v>
       </c>
-      <c r="B7" s="7">
+      <c r="C7" s="7">
+        <v>0.86</v>
+      </c>
+      <c r="D7" s="7">
         <v>0.81</v>
       </c>
-      <c r="C7" s="7">
+      <c r="E7" s="7">
         <v>0.77</v>
       </c>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A8" s="7">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A8" t="s">
+        <v>18</v>
+      </c>
+      <c r="B8" s="7">
         <v>0.86</v>
       </c>
-      <c r="B8" s="7">
+      <c r="C8" s="7">
+        <v>0.86</v>
+      </c>
+      <c r="D8" s="7">
         <v>0.85</v>
       </c>
-      <c r="C8" s="7">
+      <c r="E8" s="7">
         <v>0.83</v>
       </c>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A9" s="7">
+    <row r="9" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A9" t="s">
+        <v>18</v>
+      </c>
+      <c r="B9" s="7">
         <v>0.79</v>
       </c>
-      <c r="B9" s="7">
+      <c r="C9" s="7">
+        <v>0.79</v>
+      </c>
+      <c r="D9" s="7">
         <v>0.78</v>
       </c>
-      <c r="C9" s="7">
+      <c r="E9" s="7">
         <v>0.75</v>
       </c>
     </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A10" s="7">
+    <row r="10" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A10" t="s">
+        <v>18</v>
+      </c>
+      <c r="B10" s="7">
         <v>0.84</v>
       </c>
-      <c r="B10" s="7">
+      <c r="C10" s="7">
+        <v>0.84</v>
+      </c>
+      <c r="D10" s="7">
         <v>0.83</v>
       </c>
-      <c r="C10" s="7">
+      <c r="E10" s="7">
         <v>0.79</v>
       </c>
     </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A11" s="7">
-        <v>0.85</v>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A11" t="s">
+        <v>18</v>
       </c>
       <c r="B11" s="7">
         <v>0.85</v>
       </c>
       <c r="C11" s="7">
+        <v>0.85</v>
+      </c>
+      <c r="D11" s="7">
+        <v>0.85</v>
+      </c>
+      <c r="E11" s="7">
+        <v>0.84</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A12" t="s">
+        <v>11</v>
+      </c>
+      <c r="B12" s="1">
+        <v>0.75500000000000012</v>
+      </c>
+      <c r="C12" s="10">
+        <f>AVERAGE(C2:C11)</f>
+        <v>0.83840000000000003</v>
+      </c>
+      <c r="D12" s="10">
+        <f t="shared" ref="D12:E12" si="0">AVERAGE(D2:D11)</f>
+        <v>0.82553999999999994</v>
+      </c>
+      <c r="E12" s="10">
+        <f t="shared" si="0"/>
+        <v>0.79962000000000011</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A13" t="s">
+        <v>11</v>
+      </c>
+      <c r="B13" s="1">
+        <v>0.80259999999999998</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A14" t="s">
+        <v>19</v>
+      </c>
+      <c r="B14" s="1">
+        <v>0.85940000000000016</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A15" t="s">
+        <v>19</v>
+      </c>
+      <c r="B15" s="1">
+        <v>0.86839999999999995</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A16" t="s">
+        <v>19</v>
+      </c>
+      <c r="B16" s="7">
+        <v>0.85</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A17" t="s">
+        <v>19</v>
+      </c>
+      <c r="B17" s="7">
+        <v>0.81</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A18" t="s">
+        <v>19</v>
+      </c>
+      <c r="B18" s="7">
+        <v>0.85</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A19" t="s">
+        <v>19</v>
+      </c>
+      <c r="B19" s="7">
+        <v>0.78</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A20" t="s">
+        <v>19</v>
+      </c>
+      <c r="B20" s="7">
+        <v>0.83</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A21" t="s">
+        <v>19</v>
+      </c>
+      <c r="B21" s="7">
+        <v>0.85</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A22" t="s">
+        <v>12</v>
+      </c>
+      <c r="B22" s="1">
+        <v>0.73199999999999998</v>
+      </c>
+    </row>
+    <row r="23" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A23" t="s">
+        <v>12</v>
+      </c>
+      <c r="B23" s="1">
+        <v>0.78410000000000002</v>
+      </c>
+    </row>
+    <row r="24" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A24" t="s">
+        <v>20</v>
+      </c>
+      <c r="B24" s="1">
+        <v>0.82899999999999996</v>
+      </c>
+    </row>
+    <row r="25" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A25" t="s">
+        <v>20</v>
+      </c>
+      <c r="B25" s="1">
+        <v>0.84110000000000018</v>
+      </c>
+    </row>
+    <row r="26" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A26" t="s">
+        <v>20</v>
+      </c>
+      <c r="B26" s="7">
+        <v>0.83</v>
+      </c>
+    </row>
+    <row r="27" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A27" t="s">
+        <v>20</v>
+      </c>
+      <c r="B27" s="7">
+        <v>0.77</v>
+      </c>
+    </row>
+    <row r="28" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A28" t="s">
+        <v>20</v>
+      </c>
+      <c r="B28" s="7">
+        <v>0.83</v>
+      </c>
+    </row>
+    <row r="29" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A29" t="s">
+        <v>20</v>
+      </c>
+      <c r="B29" s="7">
+        <v>0.75</v>
+      </c>
+    </row>
+    <row r="30" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A30" t="s">
+        <v>20</v>
+      </c>
+      <c r="B30" s="7">
+        <v>0.79</v>
+      </c>
+    </row>
+    <row r="31" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A31" t="s">
+        <v>20</v>
+      </c>
+      <c r="B31" s="7">
         <v>0.84</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -4763,9 +5018,9 @@
       <selection activeCell="I8" sqref="I8:K8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A1" s="9" t="s">
         <v>0</v>
       </c>
@@ -4782,7 +5037,7 @@
       <c r="J1" s="9"/>
       <c r="K1" s="9"/>
     </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>2</v>
       </c>
@@ -4817,7 +5072,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>13</v>
       </c>
@@ -4849,7 +5104,7 @@
         <v>0.64450000000000007</v>
       </c>
     </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>14</v>
       </c>
@@ -4881,7 +5136,7 @@
         <v>0.62949999999999995</v>
       </c>
     </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>15</v>
       </c>
@@ -4913,7 +5168,7 @@
         <v>0.77549999999999997</v>
       </c>
     </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>16</v>
       </c>
@@ -4945,7 +5200,7 @@
         <v>0.76750000000000007</v>
       </c>
     </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>17</v>
       </c>
@@ -4977,7 +5232,7 @@
         <v>0.84299999999999997</v>
       </c>
     </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:11" x14ac:dyDescent="0.3">
       <c r="I8" s="7">
         <f>AVERAGE(I3:I7)</f>
         <v>0.77200000000000002</v>
@@ -5009,9 +5264,9 @@
       <selection activeCell="I8" sqref="I8:K8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A1" s="9" t="s">
         <v>0</v>
       </c>
@@ -5028,7 +5283,7 @@
       <c r="J1" s="9"/>
       <c r="K1" s="9"/>
     </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>2</v>
       </c>
@@ -5063,7 +5318,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>13</v>
       </c>
@@ -5095,7 +5350,7 @@
         <v>0.83550000000000002</v>
       </c>
     </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>14</v>
       </c>
@@ -5127,7 +5382,7 @@
         <v>0.73250000000000004</v>
       </c>
     </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>15</v>
       </c>
@@ -5159,7 +5414,7 @@
         <v>0.8125</v>
       </c>
     </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>16</v>
       </c>
@@ -5191,7 +5446,7 @@
         <v>0.77650000000000008</v>
       </c>
     </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>17</v>
       </c>
@@ -5223,7 +5478,7 @@
         <v>0.76349999999999996</v>
       </c>
     </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:11" x14ac:dyDescent="0.3">
       <c r="I8" s="7">
         <f>AVERAGE(I3:I7)</f>
         <v>0.79399999999999993</v>
@@ -5255,9 +5510,9 @@
       <selection activeCell="I8" sqref="I8:K8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A1" s="9" t="s">
         <v>0</v>
       </c>
@@ -5274,7 +5529,7 @@
       <c r="J1" s="9"/>
       <c r="K1" s="9"/>
     </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>2</v>
       </c>
@@ -5309,7 +5564,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>13</v>
       </c>
@@ -5341,7 +5596,7 @@
         <v>0.86299999999999988</v>
       </c>
     </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>14</v>
       </c>
@@ -5373,7 +5628,7 @@
         <v>0.74750000000000016</v>
       </c>
     </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>15</v>
       </c>
@@ -5405,7 +5660,7 @@
         <v>0.76850000000000007</v>
       </c>
     </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>16</v>
       </c>
@@ -5437,7 +5692,7 @@
         <v>0.92799999999999994</v>
       </c>
     </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>17</v>
       </c>
@@ -5469,7 +5724,7 @@
         <v>0.83800000000000008</v>
       </c>
     </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:11" x14ac:dyDescent="0.3">
       <c r="I8" s="7">
         <f>AVERAGE(I3:I7)</f>
         <v>0.88200000000000001</v>
@@ -5501,9 +5756,9 @@
       <selection activeCell="I8" sqref="I8:K8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A1" s="9" t="s">
         <v>0</v>
       </c>
@@ -5520,7 +5775,7 @@
       <c r="J1" s="9"/>
       <c r="K1" s="9"/>
     </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>2</v>
       </c>
@@ -5555,7 +5810,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>13</v>
       </c>
@@ -5587,7 +5842,7 @@
         <v>0.872</v>
       </c>
     </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>14</v>
       </c>
@@ -5619,7 +5874,7 @@
         <v>0.91549999999999998</v>
       </c>
     </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>15</v>
       </c>
@@ -5651,7 +5906,7 @@
         <v>0.84650000000000003</v>
       </c>
     </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>16</v>
       </c>
@@ -5683,7 +5938,7 @@
         <v>0.90350000000000008</v>
       </c>
     </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>17</v>
       </c>
@@ -5715,7 +5970,7 @@
         <v>0.66800000000000004</v>
       </c>
     </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:11" x14ac:dyDescent="0.3">
       <c r="I8" s="7">
         <f>AVERAGE(I3:I7)</f>
         <v>0.876</v>
@@ -5747,9 +6002,9 @@
       <selection activeCell="I8" sqref="I8:K8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A1" s="9" t="s">
         <v>0</v>
       </c>
@@ -5766,7 +6021,7 @@
       <c r="J1" s="9"/>
       <c r="K1" s="9"/>
     </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>2</v>
       </c>
@@ -5801,7 +6056,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>13</v>
       </c>
@@ -5833,7 +6088,7 @@
         <v>0.77700000000000002</v>
       </c>
     </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>14</v>
       </c>
@@ -5865,7 +6120,7 @@
         <v>0.86899999999999988</v>
       </c>
     </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>15</v>
       </c>
@@ -5897,7 +6152,7 @@
         <v>0.79900000000000004</v>
       </c>
     </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>16</v>
       </c>
@@ -5929,7 +6184,7 @@
         <v>0.91850000000000009</v>
       </c>
     </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>17</v>
       </c>
@@ -5961,7 +6216,7 @@
         <v>0.81100000000000005</v>
       </c>
     </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:11" x14ac:dyDescent="0.3">
       <c r="I8" s="7">
         <f>AVERAGE(I3:I7)</f>
         <v>0.86</v>
@@ -5993,9 +6248,9 @@
       <selection activeCell="D3" sqref="D3:H7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A1" s="9" t="s">
         <v>0</v>
       </c>
@@ -6012,7 +6267,7 @@
       <c r="J1" s="9"/>
       <c r="K1" s="9"/>
     </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>2</v>
       </c>
@@ -6047,7 +6302,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>13</v>
       </c>
@@ -6079,7 +6334,7 @@
         <v>0.70499999999999985</v>
       </c>
     </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>14</v>
       </c>
@@ -6111,7 +6366,7 @@
         <v>0.75600000000000001</v>
       </c>
     </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>15</v>
       </c>
@@ -6143,7 +6398,7 @@
         <v>0.74</v>
       </c>
     </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>16</v>
       </c>
@@ -6175,7 +6430,7 @@
         <v>0.81400000000000006</v>
       </c>
     </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>17</v>
       </c>
@@ -6207,7 +6462,7 @@
         <v>0.84050000000000002</v>
       </c>
     </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:11" x14ac:dyDescent="0.3">
       <c r="I8" s="7">
         <f>AVERAGE(I3:I7)</f>
         <v>0.86</v>
@@ -6239,9 +6494,9 @@
       <selection activeCell="D3" sqref="D3:H7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A1" s="9" t="s">
         <v>0</v>
       </c>
@@ -6258,7 +6513,7 @@
       <c r="J1" s="9"/>
       <c r="K1" s="9"/>
     </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>2</v>
       </c>
@@ -6293,7 +6548,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>13</v>
       </c>
@@ -6325,7 +6580,7 @@
         <v>0.77</v>
       </c>
     </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>14</v>
       </c>
@@ -6357,7 +6612,7 @@
         <v>0.9355</v>
       </c>
     </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>15</v>
       </c>
@@ -6389,7 +6644,7 @@
         <v>0.81650000000000011</v>
       </c>
     </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>16</v>
       </c>
@@ -6421,7 +6676,7 @@
         <v>0.87600000000000011</v>
       </c>
     </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>17</v>
       </c>
@@ -6453,7 +6708,7 @@
         <v>0.73849999999999993</v>
       </c>
     </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:11" x14ac:dyDescent="0.3">
       <c r="I8" s="7">
         <f>AVERAGE(I3:I7)</f>
         <v>0.85799999999999998</v>
@@ -6485,9 +6740,9 @@
       <selection activeCell="D3" sqref="D3:H7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A1" s="9" t="s">
         <v>0</v>
       </c>
@@ -6504,7 +6759,7 @@
       <c r="J1" s="9"/>
       <c r="K1" s="9"/>
     </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>2</v>
       </c>
@@ -6539,7 +6794,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>13</v>
       </c>
@@ -6571,7 +6826,7 @@
         <v>0.75600000000000001</v>
       </c>
     </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>14</v>
       </c>
@@ -6603,7 +6858,7 @@
         <v>0.73100000000000009</v>
       </c>
     </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>15</v>
       </c>
@@ -6635,7 +6890,7 @@
         <v>0.63349999999999995</v>
       </c>
     </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>16</v>
       </c>
@@ -6667,7 +6922,7 @@
         <v>0.85250000000000015</v>
       </c>
     </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>17</v>
       </c>
@@ -6699,7 +6954,7 @@
         <v>0.76800000000000002</v>
       </c>
     </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:11" x14ac:dyDescent="0.3">
       <c r="I8" s="7">
         <f>AVERAGE(I3:I7)</f>
         <v>0.79</v>
